--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2787.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2787.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169389088083547</v>
+        <v>1.204175353050232</v>
       </c>
       <c r="B1">
-        <v>2.43170159085578</v>
+        <v>1.688463926315308</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.039627075195312</v>
       </c>
       <c r="D1">
-        <v>2.368216593901283</v>
+        <v>3.747160911560059</v>
       </c>
       <c r="E1">
-        <v>1.231882430749283</v>
+        <v>1.43287456035614</v>
       </c>
     </row>
   </sheetData>
